--- a/Plan/Table/Live_Data/06.Chr_Name_Table.xlsx
+++ b/Plan/Table/Live_Data/06.Chr_Name_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04B22EEC-B57C-4749-B231-F7EC4A1CF794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BE16325-D3B6-40B3-9B07-041D4532C50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BEEA80F6-55B8-40F1-B054-2AA2B0047328}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AE7DAE4A-2E7C-40C5-9581-6800800B5546}"/>
   </bookViews>
   <sheets>
     <sheet name="06.Chr_Name_Table" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D89DCF-B964-4120-BB7F-AC815C58396E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C0786A-69C3-4054-873E-8E504B81DA52}">
   <dimension ref="A1:B139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
